--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B727C58-0C5B-4174-B8E7-BE483BBE01FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D1278-FEB1-4AFE-8271-9952D2960AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="204">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -855,6 +855,34 @@
   </si>
   <si>
     <t>천구전 컨텐츠 백천구에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet48</t>
+  </si>
+  <si>
+    <t>pet49</t>
+  </si>
+  <si>
+    <t>pet50</t>
+  </si>
+  <si>
+    <t>pet51</t>
+  </si>
+  <si>
+    <t>현무(극)</t>
+  </si>
+  <si>
+    <t>백호(극)</t>
+  </si>
+  <si>
+    <t>주작(극)</t>
+  </si>
+  <si>
+    <t>청룡(극)</t>
+  </si>
+  <si>
+    <t>획득하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +1008,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1297,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5834,6 +5865,374 @@
         <v>194</v>
       </c>
     </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5800</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>57</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>18</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>12000</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T50">
+        <v>-1</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X50">
+        <v>9008</v>
+      </c>
+      <c r="Y50">
+        <v>13000</v>
+      </c>
+      <c r="Z50">
+        <v>9008</v>
+      </c>
+      <c r="AA50">
+        <v>13000</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>57</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>18</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>12500</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>81</v>
+      </c>
+      <c r="T51">
+        <v>-1</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X51">
+        <v>9008</v>
+      </c>
+      <c r="Y51">
+        <v>13000</v>
+      </c>
+      <c r="Z51">
+        <v>9008</v>
+      </c>
+      <c r="AA51">
+        <v>13000</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>6200</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>57</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>18</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>13000</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52">
+        <v>-1</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X52">
+        <v>9008</v>
+      </c>
+      <c r="Y52">
+        <v>13000</v>
+      </c>
+      <c r="Z52">
+        <v>9008</v>
+      </c>
+      <c r="AA52">
+        <v>13000</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6400</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>57</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>18</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>13500</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>81</v>
+      </c>
+      <c r="T53">
+        <v>-1</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X53">
+        <v>9008</v>
+      </c>
+      <c r="Y53">
+        <v>13000</v>
+      </c>
+      <c r="Z53">
+        <v>9008</v>
+      </c>
+      <c r="AA53">
+        <v>13000</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D1278-FEB1-4AFE-8271-9952D2960AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD846F-9C3D-425C-8C10-B98575C7887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,12 +885,32 @@
     <t>획득하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pet52</t>
+  </si>
+  <si>
+    <t>2주년 이벤트
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 이벤트 상점에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,13 +1348,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1357,7 +1377,7 @@
     <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1469,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="33">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1725,7 +1745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="33">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1817,7 +1837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="33">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="33">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2001,7 +2021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="33">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="33">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="1" customFormat="1" ht="33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="33">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="33">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="33">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2553,7 +2573,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="33">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="33">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="27">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2921,7 +2941,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="27">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3013,7 +3033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="27">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3105,7 +3125,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="27">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3197,7 +3217,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="27">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="33">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="33">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3473,7 +3493,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="33">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3565,7 +3585,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="33">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3657,7 +3677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="33">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3749,7 +3769,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="33">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="33">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3933,7 +3953,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="33">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4025,7 +4045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="33">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4117,7 +4137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="33">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="33">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="33">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4393,7 +4413,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="33">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="33">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4577,7 +4597,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="33">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4669,7 +4689,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="33">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4761,7 +4781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="33">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4853,7 +4873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="33">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4945,7 +4965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="33">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5037,7 +5057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="33">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5129,7 +5149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="33">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5221,7 +5241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="33">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="33">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5405,7 +5425,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="33">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5497,7 +5517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="33">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5589,7 +5609,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="33">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5681,7 +5701,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="33">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5773,7 +5793,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="33">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5865,7 +5885,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5957,7 +5977,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6049,7 +6069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6141,7 +6161,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6231,6 +6251,98 @@
       </c>
       <c r="AD53" s="4" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="33">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>-1</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>9</v>
+      </c>
+      <c r="K54" s="2">
+        <v>22000</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>18</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>208</v>
+      </c>
+      <c r="T54">
+        <v>-1</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X54">
+        <v>9008</v>
+      </c>
+      <c r="Y54">
+        <v>15000</v>
+      </c>
+      <c r="Z54">
+        <v>9008</v>
+      </c>
+      <c r="AA54">
+        <v>15000</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6249,12 +6361,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1">
         <v>2.83</v>
       </c>
@@ -6262,7 +6374,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6283,7 +6395,7 @@
         <v>12984121.324390855</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6296,7 +6408,7 @@
         <v>7.1850589830714746</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6309,7 +6421,7 @@
         <v>22.772461141584433</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6322,7 +6434,7 @@
         <v>51.625072590216092</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6335,7 +6447,7 @@
         <v>97.402400961655673</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6348,7 +6460,7 @@
         <v>163.62147649198724</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6361,7 +6473,7 @@
         <v>253.69033610593624</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6374,7 +6486,7 @@
         <v>370.92919156604881</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6387,7 +6499,7 @@
         <v>518.58498644497297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6400,7 +6512,7 @@
         <v>699.84199600227441</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6413,7 +6525,7 @@
         <v>917.82987409663542</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6426,7 +6538,7 @@
         <v>1175.6299594921711</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6439,7 +6551,7 @@
         <v>1476.2803438430208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6452,7 +6564,7 @@
         <v>1822.780028356379</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6465,7 +6577,7 @@
         <v>2218.092390996329</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6478,7 +6590,7 @@
         <v>2665.1481199450814</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6491,7 +6603,7 @@
         <v>3166.847725754109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6504,7 +6616,7 @@
         <v>3726.0637153424486</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6517,7 +6629,7 @@
         <v>4345.6424906336697</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6530,7 +6642,7 @@
         <v>5028.4060201068032</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6543,7 +6655,7 @@
         <v>5777.1533209679246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6556,7 +6668,7 @@
         <v>6594.661781809391</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6569,7 +6681,7 @@
         <v>7483.6883497116814</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6582,7 +6694,7 @@
         <v>8446.9706012171773</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6595,7 +6707,7 @@
         <v>9487.2277130951425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6608,7 +6720,7 @@
         <v>10607.161346061152</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6621,7 +6733,7 @@
         <v>11809.456452427221</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6634,7 +6746,7 @@
         <v>13096.782016905277</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6647,7 +6759,7 @@
         <v>14471.791738367547</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6660,7 +6772,7 @@
         <v>15937.124659210675</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6673,7 +6785,7 @@
         <v>17495.405748018162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6686,7 +6798,7 @@
         <v>19149.246440427458</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6699,7 +6811,7 @@
         <v>20901.245142450953</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6712,7 +6824,7 @@
         <v>22753.987699949073</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6725,7 +6837,7 @@
         <v>24710.047837487575</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6738,7 +6850,7 @@
         <v>26771.987569417935</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6751,7 +6863,7 @@
         <v>28942.357585680427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6764,7 +6876,7 @@
         <v>31223.697614544548</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6777,7 +6889,7 @@
         <v>33618.536764250108</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6790,7 +6902,7 @@
         <v>36129.39384529907</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6803,7 +6915,7 @@
         <v>38758.777674962395</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6816,7 +6928,7 @@
         <v>41509.187365401791</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6829,7 +6941,7 @@
         <v>44383.112596667917</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6842,7 +6954,7 @@
         <v>47383.033875707704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6855,7 +6967,7 @@
         <v>50511.42278240803</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6868,7 +6980,7 @@
         <v>53770.742203603259</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6881,7 +6993,7 @@
         <v>57163.446555889997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6894,7 +7006,7 @@
         <v>60691.98199801625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6907,7 +7019,7 @@
         <v>64358.786633542899</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6920,7 +7032,7 @@
         <v>68166.290704418891</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6933,7 +7045,7 @@
         <v>72116.91677605045</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6946,7 +7058,7 @@
         <v>76213.079914405185</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6959,7 +7071,7 @@
         <v>80457.18785563916</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6972,7 +7084,7 @@
         <v>84851.641168703747</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6985,7 +7097,7 @@
         <v>89398.83341134651</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6998,7 +7110,7 @@
         <v>94101.151279894388</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7011,7 +7123,7 @@
         <v>98960.974753173403</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7024,7 +7136,7 @@
         <v>103980.67723089711</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7037,7 +7149,7 @@
         <v>109162.62566682724</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7050,7 +7162,7 @@
         <v>114509.18069699137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7063,7 +7175,7 @@
         <v>120022.69676322554</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7076,7 +7188,7 @@
         <v>125705.52223227822</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7089,7 +7201,7 @@
         <v>131559.99951071746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7102,7 +7214,7 @@
         <v>137588.46515584254</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7115,7 +7227,7 @@
         <v>143793.2499828088</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7128,7 +7240,7 @@
         <v>150176.67916814599</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7141,7 +7253,7 @@
         <v>156741.07234985213</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7154,7 +7266,7 @@
         <v>163488.74372421691</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7167,7 +7279,7 @@
         <v>170422.00213953733</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7180,7 +7292,7 @@
         <v>177543.15118686628</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7193,7 +7305,7 @@
         <v>184854.48928792664</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7206,7 +7318,7 @@
         <v>192358.3097803242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7219,7 +7331,7 @@
         <v>200056.90100017464</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7232,7 +7344,7 @@
         <v>207952.54636226036</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7245,7 +7357,7 @@
         <v>216047.52443782196</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7258,7 +7370,7 @@
         <v>224344.10903009068</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7271,7 +7383,7 @@
         <v>232844.56924764501</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7284,7 +7396,7 @@
         <v>241551.16957569387</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7297,7 +7409,7 @@
         <v>250466.16994536808</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7310,7 +7422,7 @@
         <v>259591.82580109336</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7323,7 +7435,7 @@
         <v>268930.38816613279</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7336,7 +7448,7 @@
         <v>278484.1037063587</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7349,7 +7461,7 @@
         <v>288255.21479233768</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7362,7 +7474,7 @@
         <v>298245.95955977711</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7375,7 +7487,7 @@
         <v>308458.57196840941</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7388,7 +7500,7 @@
         <v>318895.28185936098</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7401,7 +7513,7 @@
         <v>329558.31501107744</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7414,7 +7526,7 @@
         <v>340449.89319383423</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7427,7 +7539,7 @@
         <v>351572.23422291101</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7440,7 +7552,7 @@
         <v>362927.55201046198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7453,7 +7565,7 @@
         <v>374518.05661612272</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7466,7 +7578,7 @@
         <v>386345.95429642004</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7479,7 +7591,7 @@
         <v>398413.4475529971</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7492,7 +7604,7 @@
         <v>410722.73517972359</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7505,7 +7617,7 @@
         <v>423276.01230870833</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7518,7 +7630,7 @@
         <v>436075.4704552581</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7531,7 +7643,7 @@
         <v>449123.29756181617</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7544,7 +7656,7 @@
         <v>462421.6780409186</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7557,7 +7669,7 @@
         <v>475972.79281719454</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD846F-9C3D-425C-8C10-B98575C7887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB5DEA9-681F-47F6-9C8E-EE1668352020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB5DEA9-681F-47F6-9C8E-EE1668352020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9895D45-E38B-4952-9FBA-F02C1ADA5B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,12 +905,32 @@
     <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pet53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수 패스에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,13 +1368,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1365,7 +1386,8 @@
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="2" customWidth="1"/>
     <col min="13" max="15" width="15.5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="11.125" customWidth="1"/>
@@ -1377,7 +1399,7 @@
     <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1561,7 +1583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1653,7 +1675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="33">
+    <row r="4" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1745,7 +1767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="33">
+    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1837,7 +1859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="33">
+    <row r="6" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="33">
+    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2021,7 +2043,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="33">
+    <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2113,7 +2135,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="33">
+    <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2205,7 +2227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" ht="33">
+    <row r="10" spans="1:30" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2297,7 +2319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="33">
+    <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2389,7 +2411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="33">
+    <row r="12" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2481,7 +2503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="33">
+    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2573,7 +2595,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="33">
+    <row r="14" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2665,7 +2687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="33">
+    <row r="15" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2757,7 +2779,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27">
+    <row r="16" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2849,7 +2871,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="27">
+    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2941,7 +2963,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="27">
+    <row r="18" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3033,7 +3055,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="27">
+    <row r="19" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3125,7 +3147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="27">
+    <row r="20" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3217,7 +3239,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="27">
+    <row r="21" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3309,7 +3331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="33">
+    <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3401,7 +3423,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="33">
+    <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3493,7 +3515,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="33">
+    <row r="24" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3585,7 +3607,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="33">
+    <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3677,7 +3699,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="33">
+    <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3769,7 +3791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="33">
+    <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3861,7 +3883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="33">
+    <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3953,7 +3975,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="33">
+    <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4045,7 +4067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="33">
+    <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4137,7 +4159,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="33">
+    <row r="31" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4229,7 +4251,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="33">
+    <row r="32" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4321,7 +4343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="33">
+    <row r="33" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4413,7 +4435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="33">
+    <row r="34" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4505,7 +4527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="33">
+    <row r="35" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4597,7 +4619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="33">
+    <row r="36" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4689,7 +4711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="33">
+    <row r="37" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="33">
+    <row r="38" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4873,7 +4895,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="33">
+    <row r="39" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4965,7 +4987,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="33">
+    <row r="40" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5057,7 +5079,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="33">
+    <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5149,7 +5171,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="33">
+    <row r="42" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5241,7 +5263,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="33">
+    <row r="43" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5333,7 +5355,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="33">
+    <row r="44" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5425,7 +5447,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="33">
+    <row r="45" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5517,7 +5539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="33">
+    <row r="46" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5609,7 +5631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="33">
+    <row r="47" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5701,7 +5723,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="33">
+    <row r="48" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5793,7 +5815,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="33">
+    <row r="49" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5885,7 +5907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5977,7 +5999,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6069,7 +6091,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6161,7 +6183,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6253,7 +6275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="33">
+    <row r="54" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6343,6 +6365,190 @@
       </c>
       <c r="AD54" s="3" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>9</v>
+      </c>
+      <c r="K55" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>18</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>208</v>
+      </c>
+      <c r="T55">
+        <v>-1</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X55">
+        <v>9008</v>
+      </c>
+      <c r="Y55">
+        <v>15000</v>
+      </c>
+      <c r="Z55">
+        <v>9008</v>
+      </c>
+      <c r="AA55">
+        <v>15000</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9</v>
+      </c>
+      <c r="K56" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>18</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>208</v>
+      </c>
+      <c r="T56">
+        <v>-1</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X56">
+        <v>9008</v>
+      </c>
+      <c r="Y56">
+        <v>15000</v>
+      </c>
+      <c r="Z56">
+        <v>9008</v>
+      </c>
+      <c r="AA56">
+        <v>15000</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6361,12 +6567,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.83</v>
       </c>
@@ -6374,7 +6580,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6395,7 +6601,7 @@
         <v>12984121.324390855</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6408,7 +6614,7 @@
         <v>7.1850589830714746</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6421,7 +6627,7 @@
         <v>22.772461141584433</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6434,7 +6640,7 @@
         <v>51.625072590216092</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6447,7 +6653,7 @@
         <v>97.402400961655673</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6460,7 +6666,7 @@
         <v>163.62147649198724</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6473,7 +6679,7 @@
         <v>253.69033610593624</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6486,7 +6692,7 @@
         <v>370.92919156604881</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6499,7 +6705,7 @@
         <v>518.58498644497297</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6512,7 +6718,7 @@
         <v>699.84199600227441</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6525,7 +6731,7 @@
         <v>917.82987409663542</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6538,7 +6744,7 @@
         <v>1175.6299594921711</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6551,7 +6757,7 @@
         <v>1476.2803438430208</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6564,7 +6770,7 @@
         <v>1822.780028356379</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6577,7 +6783,7 @@
         <v>2218.092390996329</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6590,7 +6796,7 @@
         <v>2665.1481199450814</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6603,7 +6809,7 @@
         <v>3166.847725754109</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6616,7 +6822,7 @@
         <v>3726.0637153424486</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6629,7 +6835,7 @@
         <v>4345.6424906336697</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6642,7 +6848,7 @@
         <v>5028.4060201068032</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6655,7 +6861,7 @@
         <v>5777.1533209679246</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6668,7 +6874,7 @@
         <v>6594.661781809391</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6681,7 +6887,7 @@
         <v>7483.6883497116814</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6694,7 +6900,7 @@
         <v>8446.9706012171773</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6707,7 +6913,7 @@
         <v>9487.2277130951425</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6720,7 +6926,7 @@
         <v>10607.161346061152</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6733,7 +6939,7 @@
         <v>11809.456452427221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6746,7 +6952,7 @@
         <v>13096.782016905277</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6759,7 +6965,7 @@
         <v>14471.791738367547</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6772,7 +6978,7 @@
         <v>15937.124659210675</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6785,7 +6991,7 @@
         <v>17495.405748018162</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6798,7 +7004,7 @@
         <v>19149.246440427458</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6811,7 +7017,7 @@
         <v>20901.245142450953</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6824,7 +7030,7 @@
         <v>22753.987699949073</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6837,7 +7043,7 @@
         <v>24710.047837487575</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6850,7 +7056,7 @@
         <v>26771.987569417935</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6863,7 +7069,7 @@
         <v>28942.357585680427</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6876,7 +7082,7 @@
         <v>31223.697614544548</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6889,7 +7095,7 @@
         <v>33618.536764250108</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6902,7 +7108,7 @@
         <v>36129.39384529907</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6915,7 +7121,7 @@
         <v>38758.777674962395</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6928,7 +7134,7 @@
         <v>41509.187365401791</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6941,7 +7147,7 @@
         <v>44383.112596667917</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6954,7 +7160,7 @@
         <v>47383.033875707704</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6967,7 +7173,7 @@
         <v>50511.42278240803</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6980,7 +7186,7 @@
         <v>53770.742203603259</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6993,7 +7199,7 @@
         <v>57163.446555889997</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7006,7 +7212,7 @@
         <v>60691.98199801625</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7019,7 +7225,7 @@
         <v>64358.786633542899</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7032,7 +7238,7 @@
         <v>68166.290704418891</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7045,7 +7251,7 @@
         <v>72116.91677605045</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7058,7 +7264,7 @@
         <v>76213.079914405185</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7071,7 +7277,7 @@
         <v>80457.18785563916</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7084,7 +7290,7 @@
         <v>84851.641168703747</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7097,7 +7303,7 @@
         <v>89398.83341134651</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7110,7 +7316,7 @@
         <v>94101.151279894388</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7123,7 +7329,7 @@
         <v>98960.974753173403</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7136,7 +7342,7 @@
         <v>103980.67723089711</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7149,7 +7355,7 @@
         <v>109162.62566682724</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7162,7 +7368,7 @@
         <v>114509.18069699137</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7175,7 +7381,7 @@
         <v>120022.69676322554</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7188,7 +7394,7 @@
         <v>125705.52223227822</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7201,7 +7407,7 @@
         <v>131559.99951071746</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7214,7 +7420,7 @@
         <v>137588.46515584254</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7227,7 +7433,7 @@
         <v>143793.2499828088</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7240,7 +7446,7 @@
         <v>150176.67916814599</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7253,7 +7459,7 @@
         <v>156741.07234985213</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7266,7 +7472,7 @@
         <v>163488.74372421691</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7279,7 +7485,7 @@
         <v>170422.00213953733</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7292,7 +7498,7 @@
         <v>177543.15118686628</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7305,7 +7511,7 @@
         <v>184854.48928792664</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7318,7 +7524,7 @@
         <v>192358.3097803242</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7331,7 +7537,7 @@
         <v>200056.90100017464</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7344,7 +7550,7 @@
         <v>207952.54636226036</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7357,7 +7563,7 @@
         <v>216047.52443782196</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7370,7 +7576,7 @@
         <v>224344.10903009068</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7383,7 +7589,7 @@
         <v>232844.56924764501</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7396,7 +7602,7 @@
         <v>241551.16957569387</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7409,7 +7615,7 @@
         <v>250466.16994536808</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7422,7 +7628,7 @@
         <v>259591.82580109336</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7435,7 +7641,7 @@
         <v>268930.38816613279</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7448,7 +7654,7 @@
         <v>278484.1037063587</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7461,7 +7667,7 @@
         <v>288255.21479233768</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7474,7 +7680,7 @@
         <v>298245.95955977711</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7487,7 +7693,7 @@
         <v>308458.57196840941</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7500,7 +7706,7 @@
         <v>318895.28185936098</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7513,7 +7719,7 @@
         <v>329558.31501107744</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7526,7 +7732,7 @@
         <v>340449.89319383423</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7539,7 +7745,7 @@
         <v>351572.23422291101</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7552,7 +7758,7 @@
         <v>362927.55201046198</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7565,7 +7771,7 @@
         <v>374518.05661612272</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7578,7 +7784,7 @@
         <v>386345.95429642004</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7591,7 +7797,7 @@
         <v>398413.4475529971</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7604,7 +7810,7 @@
         <v>410722.73517972359</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7617,7 +7823,7 @@
         <v>423276.01230870833</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7630,7 +7836,7 @@
         <v>436075.4704552581</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7643,7 +7849,7 @@
         <v>449123.29756181617</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7656,7 +7862,7 @@
         <v>462421.6780409186</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7669,7 +7875,7 @@
         <v>475972.79281719454</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9895D45-E38B-4952-9FBA-F02C1ADA5B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4269DC4E-B01A-4743-B518-7A46A3600486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -864,12 +864,6 @@
     <t>pet49</t>
   </si>
   <si>
-    <t>pet50</t>
-  </si>
-  <si>
-    <t>pet51</t>
-  </si>
-  <si>
     <t>현무(극)</t>
   </si>
   <si>
@@ -884,9 +878,6 @@
   <si>
     <t>획득하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet52</t>
   </si>
   <si>
     <t>2주년 이벤트
@@ -906,14 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pet53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환수 패스에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -923,6 +906,17 @@
   </si>
   <si>
     <t>요구랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispatchScore</t>
+  </si>
+  <si>
+    <t>요메이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,14 +1362,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1399,7 +1393,7 @@
     <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,8 +1484,11 @@
       <c r="AD1" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1582,8 +1579,11 @@
       <c r="AD2" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1674,8 +1674,11 @@
       <c r="AD3" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="33">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1766,8 +1769,11 @@
       <c r="AD4" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="33">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1858,8 +1864,11 @@
       <c r="AD5" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="33">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1950,8 +1959,11 @@
       <c r="AD6" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="33">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2042,8 +2054,11 @@
       <c r="AD7" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="33">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2134,8 +2149,11 @@
       <c r="AD8" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="33">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2226,8 +2244,11 @@
       <c r="AD9" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="1" customFormat="1" ht="33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2318,8 +2339,11 @@
       <c r="AD10" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="33">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2410,8 +2434,11 @@
       <c r="AD11" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="33">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2502,8 +2529,11 @@
       <c r="AD12" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="33">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2594,8 +2624,11 @@
       <c r="AD13" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="33">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2686,8 +2719,11 @@
       <c r="AD14" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="33">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2778,8 +2814,11 @@
       <c r="AD15" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2870,8 +2909,11 @@
       <c r="AD16" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="27">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2962,8 +3004,11 @@
       <c r="AD17" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="27">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3054,8 +3099,11 @@
       <c r="AD18" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="27">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3146,8 +3194,11 @@
       <c r="AD19" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="27">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3238,8 +3289,11 @@
       <c r="AD20" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="AE20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="27">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3330,8 +3384,11 @@
       <c r="AD21" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="33">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3422,8 +3479,11 @@
       <c r="AD22" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="33">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3514,8 +3574,11 @@
       <c r="AD23" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="33">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3606,8 +3669,11 @@
       <c r="AD24" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="33">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3698,8 +3764,11 @@
       <c r="AD25" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="33">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3790,8 +3859,11 @@
       <c r="AD26" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="33">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3882,8 +3954,11 @@
       <c r="AD27" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="33">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3974,8 +4049,11 @@
       <c r="AD28" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="33">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4066,8 +4144,11 @@
       <c r="AD29" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="33">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4158,8 +4239,11 @@
       <c r="AD30" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="33">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4250,8 +4334,11 @@
       <c r="AD31" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="33">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4342,8 +4429,11 @@
       <c r="AD32" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="33">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4434,8 +4524,11 @@
       <c r="AD33" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="33">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4526,8 +4619,11 @@
       <c r="AD34" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="33">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4618,8 +4714,11 @@
       <c r="AD35" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="33">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4710,8 +4809,11 @@
       <c r="AD36" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="33">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4802,8 +4904,11 @@
       <c r="AD37" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="33">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4894,8 +4999,11 @@
       <c r="AD38" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="33">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4986,8 +5094,11 @@
       <c r="AD39" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="33">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5078,8 +5189,11 @@
       <c r="AD40" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="33">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5170,8 +5284,11 @@
       <c r="AD41" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="33">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5262,8 +5379,11 @@
       <c r="AD42" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="33">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5354,8 +5474,11 @@
       <c r="AD43" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="33">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5446,8 +5569,11 @@
       <c r="AD44" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="33">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5538,8 +5664,11 @@
       <c r="AD45" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="33">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5630,8 +5759,11 @@
       <c r="AD46" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="33">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5722,8 +5854,11 @@
       <c r="AD47" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="33">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5814,8 +5949,11 @@
       <c r="AD48" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="33">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5906,8 +6044,11 @@
       <c r="AD49" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5915,7 +6056,7 @@
         <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5993,13 +6134,16 @@
         <v>95</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="AE50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6007,7 +6151,7 @@
         <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6085,21 +6229,26 @@
         <v>95</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="AE51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52">
+        <f t="shared" ref="A52:A56" si="0">ROW()-2</f>
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>197</v>
+      <c r="B52" t="str">
+        <f t="shared" ref="B52:B56" si="1">"pet"&amp;A52</f>
+        <v>pet50</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6177,21 +6326,26 @@
         <v>95</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="AE52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>198</v>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>pet51</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6269,21 +6423,26 @@
         <v>95</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="AE53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="33">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>pet52</v>
+      </c>
+      <c r="C54" t="s">
         <v>204</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6331,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T54">
         <v>-1</v>
@@ -6361,21 +6520,26 @@
         <v>94</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="AE54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>209</v>
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>pet53</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6423,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T55">
         <v>-1</v>
@@ -6453,21 +6617,26 @@
         <v>94</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="AE55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>210</v>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>pet54</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6515,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T56">
         <v>-1</v>
@@ -6545,10 +6714,207 @@
         <v>94</v>
       </c>
       <c r="AC56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57">
+        <f>ROW()-2</f>
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <f>"pet"&amp;A57</f>
+        <v>pet55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>9</v>
+      </c>
+      <c r="K57" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>18</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>205</v>
+      </c>
+      <c r="T57">
+        <v>-1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X57">
+        <v>9008</v>
+      </c>
+      <c r="Y57">
+        <v>15000</v>
+      </c>
+      <c r="Z57">
+        <v>9008</v>
+      </c>
+      <c r="AA57">
+        <v>15000</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58">
+        <f>ROW()-2</f>
+        <v>56</v>
+      </c>
+      <c r="B58" t="str">
+        <f>"pet"&amp;A58</f>
+        <v>pet56</v>
+      </c>
+      <c r="C58" t="s">
         <v>211</v>
       </c>
-      <c r="AD56" s="4" t="s">
-        <v>211</v>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>9</v>
+      </c>
+      <c r="K58" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>18</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>205</v>
+      </c>
+      <c r="T58">
+        <v>-1</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X58">
+        <v>9008</v>
+      </c>
+      <c r="Y58">
+        <v>15000</v>
+      </c>
+      <c r="Z58">
+        <v>9008</v>
+      </c>
+      <c r="AA58">
+        <v>15000</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE58">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6567,12 +6933,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1">
         <v>2.83</v>
       </c>
@@ -6580,7 +6946,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6601,7 +6967,7 @@
         <v>12984121.324390855</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6614,7 +6980,7 @@
         <v>7.1850589830714746</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6627,7 +6993,7 @@
         <v>22.772461141584433</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6640,7 +7006,7 @@
         <v>51.625072590216092</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6653,7 +7019,7 @@
         <v>97.402400961655673</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6666,7 +7032,7 @@
         <v>163.62147649198724</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6679,7 +7045,7 @@
         <v>253.69033610593624</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6692,7 +7058,7 @@
         <v>370.92919156604881</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6705,7 +7071,7 @@
         <v>518.58498644497297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6718,7 +7084,7 @@
         <v>699.84199600227441</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6731,7 +7097,7 @@
         <v>917.82987409663542</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6744,7 +7110,7 @@
         <v>1175.6299594921711</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6757,7 +7123,7 @@
         <v>1476.2803438430208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6770,7 +7136,7 @@
         <v>1822.780028356379</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6783,7 +7149,7 @@
         <v>2218.092390996329</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6796,7 +7162,7 @@
         <v>2665.1481199450814</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6809,7 +7175,7 @@
         <v>3166.847725754109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6822,7 +7188,7 @@
         <v>3726.0637153424486</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6835,7 +7201,7 @@
         <v>4345.6424906336697</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6848,7 +7214,7 @@
         <v>5028.4060201068032</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6861,7 +7227,7 @@
         <v>5777.1533209679246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6874,7 +7240,7 @@
         <v>6594.661781809391</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6887,7 +7253,7 @@
         <v>7483.6883497116814</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6900,7 +7266,7 @@
         <v>8446.9706012171773</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6913,7 +7279,7 @@
         <v>9487.2277130951425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6926,7 +7292,7 @@
         <v>10607.161346061152</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6939,7 +7305,7 @@
         <v>11809.456452427221</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6952,7 +7318,7 @@
         <v>13096.782016905277</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6965,7 +7331,7 @@
         <v>14471.791738367547</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6978,7 +7344,7 @@
         <v>15937.124659210675</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6991,7 +7357,7 @@
         <v>17495.405748018162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7004,7 +7370,7 @@
         <v>19149.246440427458</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7017,7 +7383,7 @@
         <v>20901.245142450953</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7030,7 +7396,7 @@
         <v>22753.987699949073</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7043,7 +7409,7 @@
         <v>24710.047837487575</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7056,7 +7422,7 @@
         <v>26771.987569417935</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7069,7 +7435,7 @@
         <v>28942.357585680427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7082,7 +7448,7 @@
         <v>31223.697614544548</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7095,7 +7461,7 @@
         <v>33618.536764250108</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7108,7 +7474,7 @@
         <v>36129.39384529907</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7121,7 +7487,7 @@
         <v>38758.777674962395</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7134,7 +7500,7 @@
         <v>41509.187365401791</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7147,7 +7513,7 @@
         <v>44383.112596667917</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7160,7 +7526,7 @@
         <v>47383.033875707704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7173,7 +7539,7 @@
         <v>50511.42278240803</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7186,7 +7552,7 @@
         <v>53770.742203603259</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7199,7 +7565,7 @@
         <v>57163.446555889997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7212,7 +7578,7 @@
         <v>60691.98199801625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7225,7 +7591,7 @@
         <v>64358.786633542899</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7238,7 +7604,7 @@
         <v>68166.290704418891</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7251,7 +7617,7 @@
         <v>72116.91677605045</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7264,7 +7630,7 @@
         <v>76213.079914405185</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7277,7 +7643,7 @@
         <v>80457.18785563916</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7290,7 +7656,7 @@
         <v>84851.641168703747</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7303,7 +7669,7 @@
         <v>89398.83341134651</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7316,7 +7682,7 @@
         <v>94101.151279894388</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7329,7 +7695,7 @@
         <v>98960.974753173403</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7342,7 +7708,7 @@
         <v>103980.67723089711</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7355,7 +7721,7 @@
         <v>109162.62566682724</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7368,7 +7734,7 @@
         <v>114509.18069699137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7381,7 +7747,7 @@
         <v>120022.69676322554</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7394,7 +7760,7 @@
         <v>125705.52223227822</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7407,7 +7773,7 @@
         <v>131559.99951071746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7420,7 +7786,7 @@
         <v>137588.46515584254</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7433,7 +7799,7 @@
         <v>143793.2499828088</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7446,7 +7812,7 @@
         <v>150176.67916814599</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7459,7 +7825,7 @@
         <v>156741.07234985213</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7472,7 +7838,7 @@
         <v>163488.74372421691</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7485,7 +7851,7 @@
         <v>170422.00213953733</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7498,7 +7864,7 @@
         <v>177543.15118686628</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7511,7 +7877,7 @@
         <v>184854.48928792664</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7524,7 +7890,7 @@
         <v>192358.3097803242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7537,7 +7903,7 @@
         <v>200056.90100017464</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7550,7 +7916,7 @@
         <v>207952.54636226036</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7563,7 +7929,7 @@
         <v>216047.52443782196</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7576,7 +7942,7 @@
         <v>224344.10903009068</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7589,7 +7955,7 @@
         <v>232844.56924764501</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7602,7 +7968,7 @@
         <v>241551.16957569387</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7615,7 +7981,7 @@
         <v>250466.16994536808</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7628,7 +7994,7 @@
         <v>259591.82580109336</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7641,7 +8007,7 @@
         <v>268930.38816613279</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7654,7 +8020,7 @@
         <v>278484.1037063587</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7667,7 +8033,7 @@
         <v>288255.21479233768</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7680,7 +8046,7 @@
         <v>298245.95955977711</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7693,7 +8059,7 @@
         <v>308458.57196840941</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7706,7 +8072,7 @@
         <v>318895.28185936098</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7719,7 +8085,7 @@
         <v>329558.31501107744</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7732,7 +8098,7 @@
         <v>340449.89319383423</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7745,7 +8111,7 @@
         <v>351572.23422291101</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7758,7 +8124,7 @@
         <v>362927.55201046198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7771,7 +8137,7 @@
         <v>374518.05661612272</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7784,7 +8150,7 @@
         <v>386345.95429642004</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7797,7 +8163,7 @@
         <v>398413.4475529971</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7810,7 +8176,7 @@
         <v>410722.73517972359</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7823,7 +8189,7 @@
         <v>423276.01230870833</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7836,7 +8202,7 @@
         <v>436075.4704552581</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7849,7 +8215,7 @@
         <v>449123.29756181617</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7862,7 +8228,7 @@
         <v>462421.6780409186</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7875,7 +8241,7 @@
         <v>475972.79281719454</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4269DC4E-B01A-4743-B518-7A46A3600486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03880122-AC37-4A56-962D-B07775353E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="214">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,12 +919,20 @@
     <t>요군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>요미호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요미순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,14 +1370,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AE58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1393,7 +1401,7 @@
     <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="33">
+    <row r="4" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="33">
+    <row r="5" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="33">
+    <row r="6" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1963,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="33">
+    <row r="7" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="33">
+    <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2153,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="33">
+    <row r="9" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2248,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="33">
+    <row r="10" spans="1:31" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="33">
+    <row r="11" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="33">
+    <row r="12" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2533,7 +2541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="33">
+    <row r="13" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="33">
+    <row r="14" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="33">
+    <row r="15" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2818,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="27">
+    <row r="16" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2913,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="27">
+    <row r="17" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3008,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="27">
+    <row r="18" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="27">
+    <row r="19" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3198,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="27">
+    <row r="20" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3293,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="27">
+    <row r="21" spans="1:31" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="33">
+    <row r="22" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="33">
+    <row r="23" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3578,7 +3586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="33">
+    <row r="24" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="33">
+    <row r="25" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="33">
+    <row r="26" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="33">
+    <row r="27" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="33">
+    <row r="28" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4053,7 +4061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="33">
+    <row r="29" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="33">
+    <row r="30" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4243,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="33">
+    <row r="31" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="33">
+    <row r="32" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4433,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="33">
+    <row r="33" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="33">
+    <row r="34" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4623,7 +4631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="33">
+    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="33">
+    <row r="36" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4813,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="33">
+    <row r="37" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4908,7 +4916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="33">
+    <row r="38" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="33">
+    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5098,7 +5106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="33">
+    <row r="40" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="33">
+    <row r="41" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="33">
+    <row r="42" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="33">
+    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5478,7 +5486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="33">
+    <row r="44" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5573,7 +5581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="33">
+    <row r="45" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="33">
+    <row r="46" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="33">
+    <row r="47" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5858,7 +5866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="33">
+    <row r="48" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5953,7 +5961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="33">
+    <row r="49" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6238,7 +6246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ref="A52:A56" si="0">ROW()-2</f>
         <v>50</v>
@@ -6335,7 +6343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6432,7 +6440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="33">
+    <row r="54" spans="1:31" ht="33" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6529,7 +6537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6626,7 +6634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6723,7 +6731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>ROW()-2</f>
         <v>55</v>
@@ -6820,7 +6828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>ROW()-2</f>
         <v>56</v>
@@ -6914,6 +6922,200 @@
         <v>206</v>
       </c>
       <c r="AE58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>ROW()-2</f>
+        <v>57</v>
+      </c>
+      <c r="B59" t="str">
+        <f>"pet"&amp;A59</f>
+        <v>pet57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59" s="1">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>9</v>
+      </c>
+      <c r="K59" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>69</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>205</v>
+      </c>
+      <c r="T59">
+        <v>-1</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X59">
+        <v>9008</v>
+      </c>
+      <c r="Y59">
+        <v>15000</v>
+      </c>
+      <c r="Z59">
+        <v>9008</v>
+      </c>
+      <c r="AA59">
+        <v>15000</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>ROW()-2</f>
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <f>"pet"&amp;A60</f>
+        <v>pet58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>9</v>
+      </c>
+      <c r="K60" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>69</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>205</v>
+      </c>
+      <c r="T60">
+        <v>-1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X60">
+        <v>9008</v>
+      </c>
+      <c r="Y60">
+        <v>15000</v>
+      </c>
+      <c r="Z60">
+        <v>9008</v>
+      </c>
+      <c r="AA60">
+        <v>15000</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE60">
         <v>15</v>
       </c>
     </row>
@@ -6933,12 +7135,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.83</v>
       </c>
@@ -6946,7 +7148,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6967,7 +7169,7 @@
         <v>12984121.324390855</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6980,7 +7182,7 @@
         <v>7.1850589830714746</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6993,7 +7195,7 @@
         <v>22.772461141584433</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7006,7 +7208,7 @@
         <v>51.625072590216092</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7019,7 +7221,7 @@
         <v>97.402400961655673</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7032,7 +7234,7 @@
         <v>163.62147649198724</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7045,7 +7247,7 @@
         <v>253.69033610593624</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7058,7 +7260,7 @@
         <v>370.92919156604881</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7071,7 +7273,7 @@
         <v>518.58498644497297</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7084,7 +7286,7 @@
         <v>699.84199600227441</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7097,7 +7299,7 @@
         <v>917.82987409663542</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7110,7 +7312,7 @@
         <v>1175.6299594921711</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7123,7 +7325,7 @@
         <v>1476.2803438430208</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7136,7 +7338,7 @@
         <v>1822.780028356379</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7149,7 +7351,7 @@
         <v>2218.092390996329</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7162,7 +7364,7 @@
         <v>2665.1481199450814</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7175,7 +7377,7 @@
         <v>3166.847725754109</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7188,7 +7390,7 @@
         <v>3726.0637153424486</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7201,7 +7403,7 @@
         <v>4345.6424906336697</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7214,7 +7416,7 @@
         <v>5028.4060201068032</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7227,7 +7429,7 @@
         <v>5777.1533209679246</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7240,7 +7442,7 @@
         <v>6594.661781809391</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7253,7 +7455,7 @@
         <v>7483.6883497116814</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7266,7 +7468,7 @@
         <v>8446.9706012171773</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7279,7 +7481,7 @@
         <v>9487.2277130951425</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7292,7 +7494,7 @@
         <v>10607.161346061152</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7305,7 +7507,7 @@
         <v>11809.456452427221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7318,7 +7520,7 @@
         <v>13096.782016905277</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7331,7 +7533,7 @@
         <v>14471.791738367547</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7344,7 +7546,7 @@
         <v>15937.124659210675</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7357,7 +7559,7 @@
         <v>17495.405748018162</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7370,7 +7572,7 @@
         <v>19149.246440427458</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7383,7 +7585,7 @@
         <v>20901.245142450953</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7396,7 +7598,7 @@
         <v>22753.987699949073</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7409,7 +7611,7 @@
         <v>24710.047837487575</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7422,7 +7624,7 @@
         <v>26771.987569417935</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7435,7 +7637,7 @@
         <v>28942.357585680427</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7448,7 +7650,7 @@
         <v>31223.697614544548</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7461,7 +7663,7 @@
         <v>33618.536764250108</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7474,7 +7676,7 @@
         <v>36129.39384529907</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7487,7 +7689,7 @@
         <v>38758.777674962395</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7500,7 +7702,7 @@
         <v>41509.187365401791</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7513,7 +7715,7 @@
         <v>44383.112596667917</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7526,7 +7728,7 @@
         <v>47383.033875707704</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7539,7 +7741,7 @@
         <v>50511.42278240803</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7552,7 +7754,7 @@
         <v>53770.742203603259</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7565,7 +7767,7 @@
         <v>57163.446555889997</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7578,7 +7780,7 @@
         <v>60691.98199801625</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7591,7 +7793,7 @@
         <v>64358.786633542899</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7604,7 +7806,7 @@
         <v>68166.290704418891</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7617,7 +7819,7 @@
         <v>72116.91677605045</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7630,7 +7832,7 @@
         <v>76213.079914405185</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7643,7 +7845,7 @@
         <v>80457.18785563916</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7656,7 +7858,7 @@
         <v>84851.641168703747</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7669,7 +7871,7 @@
         <v>89398.83341134651</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7682,7 +7884,7 @@
         <v>94101.151279894388</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7695,7 +7897,7 @@
         <v>98960.974753173403</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7708,7 +7910,7 @@
         <v>103980.67723089711</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7721,7 +7923,7 @@
         <v>109162.62566682724</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7734,7 +7936,7 @@
         <v>114509.18069699137</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7747,7 +7949,7 @@
         <v>120022.69676322554</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7760,7 +7962,7 @@
         <v>125705.52223227822</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7773,7 +7975,7 @@
         <v>131559.99951071746</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7786,7 +7988,7 @@
         <v>137588.46515584254</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7799,7 +8001,7 @@
         <v>143793.2499828088</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7812,7 +8014,7 @@
         <v>150176.67916814599</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7825,7 +8027,7 @@
         <v>156741.07234985213</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7838,7 +8040,7 @@
         <v>163488.74372421691</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7851,7 +8053,7 @@
         <v>170422.00213953733</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7864,7 +8066,7 @@
         <v>177543.15118686628</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7877,7 +8079,7 @@
         <v>184854.48928792664</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7890,7 +8092,7 @@
         <v>192358.3097803242</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7903,7 +8105,7 @@
         <v>200056.90100017464</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7916,7 +8118,7 @@
         <v>207952.54636226036</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7929,7 +8131,7 @@
         <v>216047.52443782196</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7942,7 +8144,7 @@
         <v>224344.10903009068</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7955,7 +8157,7 @@
         <v>232844.56924764501</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7968,7 +8170,7 @@
         <v>241551.16957569387</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7981,7 +8183,7 @@
         <v>250466.16994536808</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7994,7 +8196,7 @@
         <v>259591.82580109336</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8007,7 +8209,7 @@
         <v>268930.38816613279</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8020,7 +8222,7 @@
         <v>278484.1037063587</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8033,7 +8235,7 @@
         <v>288255.21479233768</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8046,7 +8248,7 @@
         <v>298245.95955977711</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8059,7 +8261,7 @@
         <v>308458.57196840941</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8072,7 +8274,7 @@
         <v>318895.28185936098</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8085,7 +8287,7 @@
         <v>329558.31501107744</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8098,7 +8300,7 @@
         <v>340449.89319383423</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8111,7 +8313,7 @@
         <v>351572.23422291101</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8124,7 +8326,7 @@
         <v>362927.55201046198</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8137,7 +8339,7 @@
         <v>374518.05661612272</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8150,7 +8352,7 @@
         <v>386345.95429642004</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8163,7 +8365,7 @@
         <v>398413.4475529971</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8176,7 +8378,7 @@
         <v>410722.73517972359</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8189,7 +8391,7 @@
         <v>423276.01230870833</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8202,7 +8404,7 @@
         <v>436075.4704552581</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8215,7 +8417,7 @@
         <v>449123.29756181617</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8228,7 +8430,7 @@
         <v>462421.6780409186</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8241,7 +8443,7 @@
         <v>475972.79281719454</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03880122-AC37-4A56-962D-B07775353E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F61F2-BEA4-4AF5-9566-CFFCF6D0C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="215">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,12 +927,16 @@
     <t>요미순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shopPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,9 +1078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1114,7 +1118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1220,7 +1224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1362,7 +1366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1370,14 +1374,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF55" sqref="AF55:AF60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1401,7 +1405,7 @@
     <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1495,8 +1499,11 @@
       <c r="AE1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1590,8 +1597,11 @@
       <c r="AE2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1685,8 +1695,11 @@
       <c r="AE3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="33">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1780,8 +1793,11 @@
       <c r="AE4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="33">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1875,8 +1891,11 @@
       <c r="AE5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="33">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1970,8 +1989,11 @@
       <c r="AE6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="33">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2065,8 +2087,11 @@
       <c r="AE7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="33">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2160,8 +2185,11 @@
       <c r="AE8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="33">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2255,8 +2283,11 @@
       <c r="AE9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2350,8 +2381,11 @@
       <c r="AE10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="33">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2445,8 +2479,11 @@
       <c r="AE11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="33">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2540,8 +2577,11 @@
       <c r="AE12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="33">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2635,8 +2675,11 @@
       <c r="AE13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="33">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2730,8 +2773,11 @@
       <c r="AE14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="33">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2825,8 +2871,11 @@
       <c r="AE15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2920,8 +2969,11 @@
       <c r="AE16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="27">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3015,8 +3067,11 @@
       <c r="AE17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="27">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3110,8 +3165,11 @@
       <c r="AE18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="27">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3205,8 +3263,11 @@
       <c r="AE19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="27">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3300,8 +3361,11 @@
       <c r="AE20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+      <c r="AF20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="27">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3395,8 +3459,11 @@
       <c r="AE21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="33">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3490,8 +3557,11 @@
       <c r="AE22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="33">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3585,8 +3655,11 @@
       <c r="AE23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="33">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3680,8 +3753,11 @@
       <c r="AE24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="33">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3775,8 +3851,11 @@
       <c r="AE25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="33">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3870,8 +3949,11 @@
       <c r="AE26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="33">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3965,8 +4047,11 @@
       <c r="AE27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="33">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4060,8 +4145,11 @@
       <c r="AE28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="33">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4155,8 +4243,11 @@
       <c r="AE29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="33">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4250,8 +4341,11 @@
       <c r="AE30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="33">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4345,8 +4439,11 @@
       <c r="AE31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="33">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4440,8 +4537,11 @@
       <c r="AE32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="33">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4535,8 +4635,11 @@
       <c r="AE33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="33">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4630,8 +4733,11 @@
       <c r="AE34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="33">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4725,8 +4831,11 @@
       <c r="AE35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="33">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4820,8 +4929,11 @@
       <c r="AE36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="33">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4915,8 +5027,11 @@
       <c r="AE37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="33">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5010,8 +5125,11 @@
       <c r="AE38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="33">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5105,8 +5223,11 @@
       <c r="AE39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="33">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5200,8 +5321,11 @@
       <c r="AE40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="33">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5295,8 +5419,11 @@
       <c r="AE41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="33">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5390,8 +5517,11 @@
       <c r="AE42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="33">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5485,8 +5615,11 @@
       <c r="AE43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="33">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5580,8 +5713,11 @@
       <c r="AE44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="33">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5675,8 +5811,11 @@
       <c r="AE45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="33">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5770,8 +5909,11 @@
       <c r="AE46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="33">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5865,8 +6007,11 @@
       <c r="AE47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="33">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5960,8 +6105,11 @@
       <c r="AE48">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="33">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6055,8 +6203,11 @@
       <c r="AE49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6150,8 +6301,11 @@
       <c r="AE50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6245,8 +6399,11 @@
       <c r="AE51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52">
         <f t="shared" ref="A52:A56" si="0">ROW()-2</f>
         <v>50</v>
@@ -6342,8 +6499,11 @@
       <c r="AE52">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6439,8 +6599,11 @@
       <c r="AE53">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" ht="33" x14ac:dyDescent="0.3">
+      <c r="AF53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="33">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6536,8 +6699,11 @@
       <c r="AE54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6633,8 +6799,11 @@
       <c r="AE55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6730,8 +6899,11 @@
       <c r="AE56">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57">
         <f>ROW()-2</f>
         <v>55</v>
@@ -6827,8 +6999,11 @@
       <c r="AE57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58">
         <f>ROW()-2</f>
         <v>56</v>
@@ -6924,8 +7099,11 @@
       <c r="AE58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59">
         <f>ROW()-2</f>
         <v>57</v>
@@ -7021,8 +7199,11 @@
       <c r="AE59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60">
         <f>ROW()-2</f>
         <v>58</v>
@@ -7117,6 +7298,9 @@
       </c>
       <c r="AE60">
         <v>15</v>
+      </c>
+      <c r="AF60">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -7135,12 +7319,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1">
         <v>2.83</v>
       </c>
@@ -7148,7 +7332,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7169,7 +7353,7 @@
         <v>12984121.324390855</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7182,7 +7366,7 @@
         <v>7.1850589830714746</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7195,7 +7379,7 @@
         <v>22.772461141584433</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7208,7 +7392,7 @@
         <v>51.625072590216092</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7221,7 +7405,7 @@
         <v>97.402400961655673</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7234,7 +7418,7 @@
         <v>163.62147649198724</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7247,7 +7431,7 @@
         <v>253.69033610593624</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7260,7 +7444,7 @@
         <v>370.92919156604881</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7273,7 +7457,7 @@
         <v>518.58498644497297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7286,7 +7470,7 @@
         <v>699.84199600227441</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7299,7 +7483,7 @@
         <v>917.82987409663542</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7312,7 +7496,7 @@
         <v>1175.6299594921711</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7325,7 +7509,7 @@
         <v>1476.2803438430208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7338,7 +7522,7 @@
         <v>1822.780028356379</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7351,7 +7535,7 @@
         <v>2218.092390996329</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7364,7 +7548,7 @@
         <v>2665.1481199450814</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7377,7 +7561,7 @@
         <v>3166.847725754109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7390,7 +7574,7 @@
         <v>3726.0637153424486</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7403,7 +7587,7 @@
         <v>4345.6424906336697</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7416,7 +7600,7 @@
         <v>5028.4060201068032</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7429,7 +7613,7 @@
         <v>5777.1533209679246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7442,7 +7626,7 @@
         <v>6594.661781809391</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7455,7 +7639,7 @@
         <v>7483.6883497116814</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7468,7 +7652,7 @@
         <v>8446.9706012171773</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7481,7 +7665,7 @@
         <v>9487.2277130951425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7494,7 +7678,7 @@
         <v>10607.161346061152</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7507,7 +7691,7 @@
         <v>11809.456452427221</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7520,7 +7704,7 @@
         <v>13096.782016905277</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7533,7 +7717,7 @@
         <v>14471.791738367547</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7546,7 +7730,7 @@
         <v>15937.124659210675</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7559,7 +7743,7 @@
         <v>17495.405748018162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7572,7 +7756,7 @@
         <v>19149.246440427458</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7585,7 +7769,7 @@
         <v>20901.245142450953</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7598,7 +7782,7 @@
         <v>22753.987699949073</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7611,7 +7795,7 @@
         <v>24710.047837487575</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7624,7 +7808,7 @@
         <v>26771.987569417935</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7637,7 +7821,7 @@
         <v>28942.357585680427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7650,7 +7834,7 @@
         <v>31223.697614544548</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7663,7 +7847,7 @@
         <v>33618.536764250108</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7676,7 +7860,7 @@
         <v>36129.39384529907</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7689,7 +7873,7 @@
         <v>38758.777674962395</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7702,7 +7886,7 @@
         <v>41509.187365401791</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7715,7 +7899,7 @@
         <v>44383.112596667917</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7728,7 +7912,7 @@
         <v>47383.033875707704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7741,7 +7925,7 @@
         <v>50511.42278240803</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7754,7 +7938,7 @@
         <v>53770.742203603259</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7767,7 +7951,7 @@
         <v>57163.446555889997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7780,7 +7964,7 @@
         <v>60691.98199801625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7793,7 +7977,7 @@
         <v>64358.786633542899</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7806,7 +7990,7 @@
         <v>68166.290704418891</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7819,7 +8003,7 @@
         <v>72116.91677605045</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7832,7 +8016,7 @@
         <v>76213.079914405185</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7845,7 +8029,7 @@
         <v>80457.18785563916</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7858,7 +8042,7 @@
         <v>84851.641168703747</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7871,7 +8055,7 @@
         <v>89398.83341134651</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7884,7 +8068,7 @@
         <v>94101.151279894388</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7897,7 +8081,7 @@
         <v>98960.974753173403</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7910,7 +8094,7 @@
         <v>103980.67723089711</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7923,7 +8107,7 @@
         <v>109162.62566682724</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7936,7 +8120,7 @@
         <v>114509.18069699137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7949,7 +8133,7 @@
         <v>120022.69676322554</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7962,7 +8146,7 @@
         <v>125705.52223227822</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7975,7 +8159,7 @@
         <v>131559.99951071746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7988,7 +8172,7 @@
         <v>137588.46515584254</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8001,7 +8185,7 @@
         <v>143793.2499828088</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8014,7 +8198,7 @@
         <v>150176.67916814599</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8027,7 +8211,7 @@
         <v>156741.07234985213</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8040,7 +8224,7 @@
         <v>163488.74372421691</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8053,7 +8237,7 @@
         <v>170422.00213953733</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8066,7 +8250,7 @@
         <v>177543.15118686628</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8079,7 +8263,7 @@
         <v>184854.48928792664</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8092,7 +8276,7 @@
         <v>192358.3097803242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8105,7 +8289,7 @@
         <v>200056.90100017464</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8118,7 +8302,7 @@
         <v>207952.54636226036</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8131,7 +8315,7 @@
         <v>216047.52443782196</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8144,7 +8328,7 @@
         <v>224344.10903009068</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8157,7 +8341,7 @@
         <v>232844.56924764501</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8170,7 +8354,7 @@
         <v>241551.16957569387</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8183,7 +8367,7 @@
         <v>250466.16994536808</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8196,7 +8380,7 @@
         <v>259591.82580109336</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8209,7 +8393,7 @@
         <v>268930.38816613279</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8222,7 +8406,7 @@
         <v>278484.1037063587</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8235,7 +8419,7 @@
         <v>288255.21479233768</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8248,7 +8432,7 @@
         <v>298245.95955977711</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8261,7 +8445,7 @@
         <v>308458.57196840941</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8274,7 +8458,7 @@
         <v>318895.28185936098</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8287,7 +8471,7 @@
         <v>329558.31501107744</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8300,7 +8484,7 @@
         <v>340449.89319383423</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8313,7 +8497,7 @@
         <v>351572.23422291101</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8326,7 +8510,7 @@
         <v>362927.55201046198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8339,7 +8523,7 @@
         <v>374518.05661612272</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8352,7 +8536,7 @@
         <v>386345.95429642004</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8365,7 +8549,7 @@
         <v>398413.4475529971</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8378,7 +8562,7 @@
         <v>410722.73517972359</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8391,7 +8575,7 @@
         <v>423276.01230870833</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8404,7 +8588,7 @@
         <v>436075.4704552581</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8417,7 +8601,7 @@
         <v>449123.29756181617</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8430,7 +8614,7 @@
         <v>462421.6780409186</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8443,7 +8627,7 @@
         <v>475972.79281719454</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
